--- a/xlsx/builtin/冷知识01(test).xlsx
+++ b/xlsx/builtin/冷知识01(test).xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoming/Mingo/PuzzleSister/xlsx/builtin/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="DLC" sheetId="1" r:id="rId1"/>
     <sheet name="Question" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="299">
   <si>
     <t>id</t>
   </si>
@@ -1340,12 +1335,24 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1413,6 +1420,7 @@
       <sz val="12"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1459,7 +1467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1613,13 +1621,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1736,6 +1755,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2925,31 +2950,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW23"/>
+  <dimension ref="A1:IX23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
     <col min="2" max="3" width="29" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="4" customWidth="1"/>
-    <col min="7" max="257" width="16.33203125" style="4" customWidth="1"/>
-    <col min="258" max="16384" width="16.33203125" style="5"/>
+    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="4" customWidth="1"/>
+    <col min="8" max="258" width="16.28515625" style="4" customWidth="1"/>
+    <col min="259" max="16384" width="16.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:258" ht="20.45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2965,12 +2990,15 @@
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:257" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:258" ht="93" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2986,11 +3014,14 @@
       <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="F2" s="39" t="s">
+        <v>296</v>
+      </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:257" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:258" ht="165" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>293</v>
       </c>
@@ -3006,15 +3037,17 @@
       <c r="E3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP4" s="5"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ4" s="5"/>
       <c r="IR4" s="5"/>
       <c r="IS4" s="5"/>
@@ -3022,9 +3055,9 @@
       <c r="IU4" s="5"/>
       <c r="IV4" s="5"/>
       <c r="IW4" s="5"/>
-    </row>
-    <row r="5" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP5" s="5"/>
+      <c r="IX4" s="5"/>
+    </row>
+    <row r="5" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ5" s="5"/>
       <c r="IR5" s="5"/>
       <c r="IS5" s="5"/>
@@ -3032,9 +3065,9 @@
       <c r="IU5" s="5"/>
       <c r="IV5" s="5"/>
       <c r="IW5" s="5"/>
-    </row>
-    <row r="6" spans="1:257" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP6" s="5"/>
+      <c r="IX5" s="5"/>
+    </row>
+    <row r="6" spans="1:258" ht="22.35" customHeight="1">
       <c r="IQ6" s="5"/>
       <c r="IR6" s="5"/>
       <c r="IS6" s="5"/>
@@ -3042,9 +3075,9 @@
       <c r="IU6" s="5"/>
       <c r="IV6" s="5"/>
       <c r="IW6" s="5"/>
-    </row>
-    <row r="7" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP7" s="5"/>
+      <c r="IX6" s="5"/>
+    </row>
+    <row r="7" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ7" s="5"/>
       <c r="IR7" s="5"/>
       <c r="IS7" s="5"/>
@@ -3052,9 +3085,9 @@
       <c r="IU7" s="5"/>
       <c r="IV7" s="5"/>
       <c r="IW7" s="5"/>
-    </row>
-    <row r="8" spans="1:257" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP8" s="5"/>
+      <c r="IX7" s="5"/>
+    </row>
+    <row r="8" spans="1:258" ht="36.200000000000003" customHeight="1">
       <c r="IQ8" s="5"/>
       <c r="IR8" s="5"/>
       <c r="IS8" s="5"/>
@@ -3062,9 +3095,9 @@
       <c r="IU8" s="5"/>
       <c r="IV8" s="5"/>
       <c r="IW8" s="5"/>
-    </row>
-    <row r="9" spans="1:257" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP9" s="5"/>
+      <c r="IX8" s="5"/>
+    </row>
+    <row r="9" spans="1:258" ht="22.35" customHeight="1">
       <c r="IQ9" s="5"/>
       <c r="IR9" s="5"/>
       <c r="IS9" s="5"/>
@@ -3072,9 +3105,9 @@
       <c r="IU9" s="5"/>
       <c r="IV9" s="5"/>
       <c r="IW9" s="5"/>
-    </row>
-    <row r="10" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP10" s="5"/>
+      <c r="IX9" s="5"/>
+    </row>
+    <row r="10" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ10" s="5"/>
       <c r="IR10" s="5"/>
       <c r="IS10" s="5"/>
@@ -3082,9 +3115,9 @@
       <c r="IU10" s="5"/>
       <c r="IV10" s="5"/>
       <c r="IW10" s="5"/>
-    </row>
-    <row r="11" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP11" s="5"/>
+      <c r="IX10" s="5"/>
+    </row>
+    <row r="11" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ11" s="5"/>
       <c r="IR11" s="5"/>
       <c r="IS11" s="5"/>
@@ -3092,9 +3125,9 @@
       <c r="IU11" s="5"/>
       <c r="IV11" s="5"/>
       <c r="IW11" s="5"/>
-    </row>
-    <row r="12" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP12" s="5"/>
+      <c r="IX11" s="5"/>
+    </row>
+    <row r="12" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ12" s="5"/>
       <c r="IR12" s="5"/>
       <c r="IS12" s="5"/>
@@ -3102,9 +3135,9 @@
       <c r="IU12" s="5"/>
       <c r="IV12" s="5"/>
       <c r="IW12" s="5"/>
-    </row>
-    <row r="13" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP13" s="5"/>
+      <c r="IX12" s="5"/>
+    </row>
+    <row r="13" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ13" s="5"/>
       <c r="IR13" s="5"/>
       <c r="IS13" s="5"/>
@@ -3112,9 +3145,9 @@
       <c r="IU13" s="5"/>
       <c r="IV13" s="5"/>
       <c r="IW13" s="5"/>
-    </row>
-    <row r="14" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP14" s="5"/>
+      <c r="IX13" s="5"/>
+    </row>
+    <row r="14" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ14" s="5"/>
       <c r="IR14" s="5"/>
       <c r="IS14" s="5"/>
@@ -3122,9 +3155,9 @@
       <c r="IU14" s="5"/>
       <c r="IV14" s="5"/>
       <c r="IW14" s="5"/>
-    </row>
-    <row r="15" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP15" s="5"/>
+      <c r="IX14" s="5"/>
+    </row>
+    <row r="15" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ15" s="5"/>
       <c r="IR15" s="5"/>
       <c r="IS15" s="5"/>
@@ -3132,9 +3165,9 @@
       <c r="IU15" s="5"/>
       <c r="IV15" s="5"/>
       <c r="IW15" s="5"/>
-    </row>
-    <row r="16" spans="1:257" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="IP16" s="5"/>
+      <c r="IX15" s="5"/>
+    </row>
+    <row r="16" spans="1:258" ht="20.25" customHeight="1">
       <c r="IQ16" s="5"/>
       <c r="IR16" s="5"/>
       <c r="IS16" s="5"/>
@@ -3142,1763 +3175,77 @@
       <c r="IU16" s="5"/>
       <c r="IV16" s="5"/>
       <c r="IW16" s="5"/>
-    </row>
-    <row r="17" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
-      <c r="BP17" s="4"/>
-      <c r="BQ17" s="4"/>
-      <c r="BR17" s="4"/>
-      <c r="BS17" s="4"/>
-      <c r="BT17" s="4"/>
-      <c r="BU17" s="4"/>
-      <c r="BV17" s="4"/>
-      <c r="BW17" s="4"/>
-      <c r="BX17" s="4"/>
-      <c r="BY17" s="4"/>
-      <c r="BZ17" s="4"/>
-      <c r="CA17" s="4"/>
-      <c r="CB17" s="4"/>
-      <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
-      <c r="CE17" s="4"/>
-      <c r="CF17" s="4"/>
-      <c r="CG17" s="4"/>
-      <c r="CH17" s="4"/>
-      <c r="CI17" s="4"/>
-      <c r="CJ17" s="4"/>
-      <c r="CK17" s="4"/>
-      <c r="CL17" s="4"/>
-      <c r="CM17" s="4"/>
-      <c r="CN17" s="4"/>
-      <c r="CO17" s="4"/>
-      <c r="CP17" s="4"/>
-      <c r="CQ17" s="4"/>
-      <c r="CR17" s="4"/>
-      <c r="CS17" s="4"/>
-      <c r="CT17" s="4"/>
-      <c r="CU17" s="4"/>
-      <c r="CV17" s="4"/>
-      <c r="CW17" s="4"/>
-      <c r="CX17" s="4"/>
-      <c r="CY17" s="4"/>
-      <c r="CZ17" s="4"/>
-      <c r="DA17" s="4"/>
-      <c r="DB17" s="4"/>
-      <c r="DC17" s="4"/>
-      <c r="DD17" s="4"/>
-      <c r="DE17" s="4"/>
-      <c r="DF17" s="4"/>
-      <c r="DG17" s="4"/>
-      <c r="DH17" s="4"/>
-      <c r="DI17" s="4"/>
-      <c r="DJ17" s="4"/>
-      <c r="DK17" s="4"/>
-      <c r="DL17" s="4"/>
-      <c r="DM17" s="4"/>
-      <c r="DN17" s="4"/>
-      <c r="DO17" s="4"/>
-      <c r="DP17" s="4"/>
-      <c r="DQ17" s="4"/>
-      <c r="DR17" s="4"/>
-      <c r="DS17" s="4"/>
-      <c r="DT17" s="4"/>
-      <c r="DU17" s="4"/>
-      <c r="DV17" s="4"/>
-      <c r="DW17" s="4"/>
-      <c r="DX17" s="4"/>
-      <c r="DY17" s="4"/>
-      <c r="DZ17" s="4"/>
-      <c r="EA17" s="4"/>
-      <c r="EB17" s="4"/>
-      <c r="EC17" s="4"/>
-      <c r="ED17" s="4"/>
-      <c r="EE17" s="4"/>
-      <c r="EF17" s="4"/>
-      <c r="EG17" s="4"/>
-      <c r="EH17" s="4"/>
-      <c r="EI17" s="4"/>
-      <c r="EJ17" s="4"/>
-      <c r="EK17" s="4"/>
-      <c r="EL17" s="4"/>
-      <c r="EM17" s="4"/>
-      <c r="EN17" s="4"/>
-      <c r="EO17" s="4"/>
-      <c r="EP17" s="4"/>
-      <c r="EQ17" s="4"/>
-      <c r="ER17" s="4"/>
-      <c r="ES17" s="4"/>
-      <c r="ET17" s="4"/>
-      <c r="EU17" s="4"/>
-      <c r="EV17" s="4"/>
-      <c r="EW17" s="4"/>
-      <c r="EX17" s="4"/>
-      <c r="EY17" s="4"/>
-      <c r="EZ17" s="4"/>
-      <c r="FA17" s="4"/>
-      <c r="FB17" s="4"/>
-      <c r="FC17" s="4"/>
-      <c r="FD17" s="4"/>
-      <c r="FE17" s="4"/>
-      <c r="FF17" s="4"/>
-      <c r="FG17" s="4"/>
-      <c r="FH17" s="4"/>
-      <c r="FI17" s="4"/>
-      <c r="FJ17" s="4"/>
-      <c r="FK17" s="4"/>
-      <c r="FL17" s="4"/>
-      <c r="FM17" s="4"/>
-      <c r="FN17" s="4"/>
-      <c r="FO17" s="4"/>
-      <c r="FP17" s="4"/>
-      <c r="FQ17" s="4"/>
-      <c r="FR17" s="4"/>
-      <c r="FS17" s="4"/>
-      <c r="FT17" s="4"/>
-      <c r="FU17" s="4"/>
-      <c r="FV17" s="4"/>
-      <c r="FW17" s="4"/>
-      <c r="FX17" s="4"/>
-      <c r="FY17" s="4"/>
-      <c r="FZ17" s="4"/>
-      <c r="GA17" s="4"/>
-      <c r="GB17" s="4"/>
-      <c r="GC17" s="4"/>
-      <c r="GD17" s="4"/>
-      <c r="GE17" s="4"/>
-      <c r="GF17" s="4"/>
-      <c r="GG17" s="4"/>
-      <c r="GH17" s="4"/>
-      <c r="GI17" s="4"/>
-      <c r="GJ17" s="4"/>
-      <c r="GK17" s="4"/>
-      <c r="GL17" s="4"/>
-      <c r="GM17" s="4"/>
-      <c r="GN17" s="4"/>
-      <c r="GO17" s="4"/>
-      <c r="GP17" s="4"/>
-      <c r="GQ17" s="4"/>
-      <c r="GR17" s="4"/>
-      <c r="GS17" s="4"/>
-      <c r="GT17" s="4"/>
-      <c r="GU17" s="4"/>
-      <c r="GV17" s="4"/>
-      <c r="GW17" s="4"/>
-      <c r="GX17" s="4"/>
-      <c r="GY17" s="4"/>
-      <c r="GZ17" s="4"/>
-      <c r="HA17" s="4"/>
-      <c r="HB17" s="4"/>
-      <c r="HC17" s="4"/>
-      <c r="HD17" s="4"/>
-      <c r="HE17" s="4"/>
-      <c r="HF17" s="4"/>
-      <c r="HG17" s="4"/>
-      <c r="HH17" s="4"/>
-      <c r="HI17" s="4"/>
-      <c r="HJ17" s="4"/>
-      <c r="HK17" s="4"/>
-      <c r="HL17" s="4"/>
-      <c r="HM17" s="4"/>
-      <c r="HN17" s="4"/>
-      <c r="HO17" s="4"/>
-      <c r="HP17" s="4"/>
-      <c r="HQ17" s="4"/>
-      <c r="HR17" s="4"/>
-      <c r="HS17" s="4"/>
-      <c r="HT17" s="4"/>
-      <c r="HU17" s="4"/>
-      <c r="HV17" s="4"/>
-      <c r="HW17" s="4"/>
-      <c r="HX17" s="4"/>
-      <c r="HY17" s="4"/>
-      <c r="HZ17" s="4"/>
-      <c r="IA17" s="4"/>
-      <c r="IB17" s="4"/>
-      <c r="IC17" s="4"/>
-      <c r="ID17" s="4"/>
-      <c r="IE17" s="4"/>
-      <c r="IF17" s="4"/>
-      <c r="IG17" s="4"/>
-      <c r="IH17" s="4"/>
-      <c r="II17" s="4"/>
-      <c r="IJ17" s="4"/>
-      <c r="IK17" s="4"/>
-      <c r="IL17" s="4"/>
-      <c r="IM17" s="4"/>
-      <c r="IN17" s="4"/>
-      <c r="IO17" s="4"/>
-    </row>
-    <row r="18" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
-      <c r="BP18" s="4"/>
-      <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="4"/>
-      <c r="BT18" s="4"/>
-      <c r="BU18" s="4"/>
-      <c r="BV18" s="4"/>
-      <c r="BW18" s="4"/>
-      <c r="BX18" s="4"/>
-      <c r="BY18" s="4"/>
-      <c r="BZ18" s="4"/>
-      <c r="CA18" s="4"/>
-      <c r="CB18" s="4"/>
-      <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
-      <c r="CE18" s="4"/>
-      <c r="CF18" s="4"/>
-      <c r="CG18" s="4"/>
-      <c r="CH18" s="4"/>
-      <c r="CI18" s="4"/>
-      <c r="CJ18" s="4"/>
-      <c r="CK18" s="4"/>
-      <c r="CL18" s="4"/>
-      <c r="CM18" s="4"/>
-      <c r="CN18" s="4"/>
-      <c r="CO18" s="4"/>
-      <c r="CP18" s="4"/>
-      <c r="CQ18" s="4"/>
-      <c r="CR18" s="4"/>
-      <c r="CS18" s="4"/>
-      <c r="CT18" s="4"/>
-      <c r="CU18" s="4"/>
-      <c r="CV18" s="4"/>
-      <c r="CW18" s="4"/>
-      <c r="CX18" s="4"/>
-      <c r="CY18" s="4"/>
-      <c r="CZ18" s="4"/>
-      <c r="DA18" s="4"/>
-      <c r="DB18" s="4"/>
-      <c r="DC18" s="4"/>
-      <c r="DD18" s="4"/>
-      <c r="DE18" s="4"/>
-      <c r="DF18" s="4"/>
-      <c r="DG18" s="4"/>
-      <c r="DH18" s="4"/>
-      <c r="DI18" s="4"/>
-      <c r="DJ18" s="4"/>
-      <c r="DK18" s="4"/>
-      <c r="DL18" s="4"/>
-      <c r="DM18" s="4"/>
-      <c r="DN18" s="4"/>
-      <c r="DO18" s="4"/>
-      <c r="DP18" s="4"/>
-      <c r="DQ18" s="4"/>
-      <c r="DR18" s="4"/>
-      <c r="DS18" s="4"/>
-      <c r="DT18" s="4"/>
-      <c r="DU18" s="4"/>
-      <c r="DV18" s="4"/>
-      <c r="DW18" s="4"/>
-      <c r="DX18" s="4"/>
-      <c r="DY18" s="4"/>
-      <c r="DZ18" s="4"/>
-      <c r="EA18" s="4"/>
-      <c r="EB18" s="4"/>
-      <c r="EC18" s="4"/>
-      <c r="ED18" s="4"/>
-      <c r="EE18" s="4"/>
-      <c r="EF18" s="4"/>
-      <c r="EG18" s="4"/>
-      <c r="EH18" s="4"/>
-      <c r="EI18" s="4"/>
-      <c r="EJ18" s="4"/>
-      <c r="EK18" s="4"/>
-      <c r="EL18" s="4"/>
-      <c r="EM18" s="4"/>
-      <c r="EN18" s="4"/>
-      <c r="EO18" s="4"/>
-      <c r="EP18" s="4"/>
-      <c r="EQ18" s="4"/>
-      <c r="ER18" s="4"/>
-      <c r="ES18" s="4"/>
-      <c r="ET18" s="4"/>
-      <c r="EU18" s="4"/>
-      <c r="EV18" s="4"/>
-      <c r="EW18" s="4"/>
-      <c r="EX18" s="4"/>
-      <c r="EY18" s="4"/>
-      <c r="EZ18" s="4"/>
-      <c r="FA18" s="4"/>
-      <c r="FB18" s="4"/>
-      <c r="FC18" s="4"/>
-      <c r="FD18" s="4"/>
-      <c r="FE18" s="4"/>
-      <c r="FF18" s="4"/>
-      <c r="FG18" s="4"/>
-      <c r="FH18" s="4"/>
-      <c r="FI18" s="4"/>
-      <c r="FJ18" s="4"/>
-      <c r="FK18" s="4"/>
-      <c r="FL18" s="4"/>
-      <c r="FM18" s="4"/>
-      <c r="FN18" s="4"/>
-      <c r="FO18" s="4"/>
-      <c r="FP18" s="4"/>
-      <c r="FQ18" s="4"/>
-      <c r="FR18" s="4"/>
-      <c r="FS18" s="4"/>
-      <c r="FT18" s="4"/>
-      <c r="FU18" s="4"/>
-      <c r="FV18" s="4"/>
-      <c r="FW18" s="4"/>
-      <c r="FX18" s="4"/>
-      <c r="FY18" s="4"/>
-      <c r="FZ18" s="4"/>
-      <c r="GA18" s="4"/>
-      <c r="GB18" s="4"/>
-      <c r="GC18" s="4"/>
-      <c r="GD18" s="4"/>
-      <c r="GE18" s="4"/>
-      <c r="GF18" s="4"/>
-      <c r="GG18" s="4"/>
-      <c r="GH18" s="4"/>
-      <c r="GI18" s="4"/>
-      <c r="GJ18" s="4"/>
-      <c r="GK18" s="4"/>
-      <c r="GL18" s="4"/>
-      <c r="GM18" s="4"/>
-      <c r="GN18" s="4"/>
-      <c r="GO18" s="4"/>
-      <c r="GP18" s="4"/>
-      <c r="GQ18" s="4"/>
-      <c r="GR18" s="4"/>
-      <c r="GS18" s="4"/>
-      <c r="GT18" s="4"/>
-      <c r="GU18" s="4"/>
-      <c r="GV18" s="4"/>
-      <c r="GW18" s="4"/>
-      <c r="GX18" s="4"/>
-      <c r="GY18" s="4"/>
-      <c r="GZ18" s="4"/>
-      <c r="HA18" s="4"/>
-      <c r="HB18" s="4"/>
-      <c r="HC18" s="4"/>
-      <c r="HD18" s="4"/>
-      <c r="HE18" s="4"/>
-      <c r="HF18" s="4"/>
-      <c r="HG18" s="4"/>
-      <c r="HH18" s="4"/>
-      <c r="HI18" s="4"/>
-      <c r="HJ18" s="4"/>
-      <c r="HK18" s="4"/>
-      <c r="HL18" s="4"/>
-      <c r="HM18" s="4"/>
-      <c r="HN18" s="4"/>
-      <c r="HO18" s="4"/>
-      <c r="HP18" s="4"/>
-      <c r="HQ18" s="4"/>
-      <c r="HR18" s="4"/>
-      <c r="HS18" s="4"/>
-      <c r="HT18" s="4"/>
-      <c r="HU18" s="4"/>
-      <c r="HV18" s="4"/>
-      <c r="HW18" s="4"/>
-      <c r="HX18" s="4"/>
-      <c r="HY18" s="4"/>
-      <c r="HZ18" s="4"/>
-      <c r="IA18" s="4"/>
-      <c r="IB18" s="4"/>
-      <c r="IC18" s="4"/>
-      <c r="ID18" s="4"/>
-      <c r="IE18" s="4"/>
-      <c r="IF18" s="4"/>
-      <c r="IG18" s="4"/>
-      <c r="IH18" s="4"/>
-      <c r="II18" s="4"/>
-      <c r="IJ18" s="4"/>
-      <c r="IK18" s="4"/>
-      <c r="IL18" s="4"/>
-      <c r="IM18" s="4"/>
-      <c r="IN18" s="4"/>
-      <c r="IO18" s="4"/>
-    </row>
-    <row r="19" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
-      <c r="BT19" s="4"/>
-      <c r="BU19" s="4"/>
-      <c r="BV19" s="4"/>
-      <c r="BW19" s="4"/>
-      <c r="BX19" s="4"/>
-      <c r="BY19" s="4"/>
-      <c r="BZ19" s="4"/>
-      <c r="CA19" s="4"/>
-      <c r="CB19" s="4"/>
-      <c r="CC19" s="4"/>
-      <c r="CD19" s="4"/>
-      <c r="CE19" s="4"/>
-      <c r="CF19" s="4"/>
-      <c r="CG19" s="4"/>
-      <c r="CH19" s="4"/>
-      <c r="CI19" s="4"/>
-      <c r="CJ19" s="4"/>
-      <c r="CK19" s="4"/>
-      <c r="CL19" s="4"/>
-      <c r="CM19" s="4"/>
-      <c r="CN19" s="4"/>
-      <c r="CO19" s="4"/>
-      <c r="CP19" s="4"/>
-      <c r="CQ19" s="4"/>
-      <c r="CR19" s="4"/>
-      <c r="CS19" s="4"/>
-      <c r="CT19" s="4"/>
-      <c r="CU19" s="4"/>
-      <c r="CV19" s="4"/>
-      <c r="CW19" s="4"/>
-      <c r="CX19" s="4"/>
-      <c r="CY19" s="4"/>
-      <c r="CZ19" s="4"/>
-      <c r="DA19" s="4"/>
-      <c r="DB19" s="4"/>
-      <c r="DC19" s="4"/>
-      <c r="DD19" s="4"/>
-      <c r="DE19" s="4"/>
-      <c r="DF19" s="4"/>
-      <c r="DG19" s="4"/>
-      <c r="DH19" s="4"/>
-      <c r="DI19" s="4"/>
-      <c r="DJ19" s="4"/>
-      <c r="DK19" s="4"/>
-      <c r="DL19" s="4"/>
-      <c r="DM19" s="4"/>
-      <c r="DN19" s="4"/>
-      <c r="DO19" s="4"/>
-      <c r="DP19" s="4"/>
-      <c r="DQ19" s="4"/>
-      <c r="DR19" s="4"/>
-      <c r="DS19" s="4"/>
-      <c r="DT19" s="4"/>
-      <c r="DU19" s="4"/>
-      <c r="DV19" s="4"/>
-      <c r="DW19" s="4"/>
-      <c r="DX19" s="4"/>
-      <c r="DY19" s="4"/>
-      <c r="DZ19" s="4"/>
-      <c r="EA19" s="4"/>
-      <c r="EB19" s="4"/>
-      <c r="EC19" s="4"/>
-      <c r="ED19" s="4"/>
-      <c r="EE19" s="4"/>
-      <c r="EF19" s="4"/>
-      <c r="EG19" s="4"/>
-      <c r="EH19" s="4"/>
-      <c r="EI19" s="4"/>
-      <c r="EJ19" s="4"/>
-      <c r="EK19" s="4"/>
-      <c r="EL19" s="4"/>
-      <c r="EM19" s="4"/>
-      <c r="EN19" s="4"/>
-      <c r="EO19" s="4"/>
-      <c r="EP19" s="4"/>
-      <c r="EQ19" s="4"/>
-      <c r="ER19" s="4"/>
-      <c r="ES19" s="4"/>
-      <c r="ET19" s="4"/>
-      <c r="EU19" s="4"/>
-      <c r="EV19" s="4"/>
-      <c r="EW19" s="4"/>
-      <c r="EX19" s="4"/>
-      <c r="EY19" s="4"/>
-      <c r="EZ19" s="4"/>
-      <c r="FA19" s="4"/>
-      <c r="FB19" s="4"/>
-      <c r="FC19" s="4"/>
-      <c r="FD19" s="4"/>
-      <c r="FE19" s="4"/>
-      <c r="FF19" s="4"/>
-      <c r="FG19" s="4"/>
-      <c r="FH19" s="4"/>
-      <c r="FI19" s="4"/>
-      <c r="FJ19" s="4"/>
-      <c r="FK19" s="4"/>
-      <c r="FL19" s="4"/>
-      <c r="FM19" s="4"/>
-      <c r="FN19" s="4"/>
-      <c r="FO19" s="4"/>
-      <c r="FP19" s="4"/>
-      <c r="FQ19" s="4"/>
-      <c r="FR19" s="4"/>
-      <c r="FS19" s="4"/>
-      <c r="FT19" s="4"/>
-      <c r="FU19" s="4"/>
-      <c r="FV19" s="4"/>
-      <c r="FW19" s="4"/>
-      <c r="FX19" s="4"/>
-      <c r="FY19" s="4"/>
-      <c r="FZ19" s="4"/>
-      <c r="GA19" s="4"/>
-      <c r="GB19" s="4"/>
-      <c r="GC19" s="4"/>
-      <c r="GD19" s="4"/>
-      <c r="GE19" s="4"/>
-      <c r="GF19" s="4"/>
-      <c r="GG19" s="4"/>
-      <c r="GH19" s="4"/>
-      <c r="GI19" s="4"/>
-      <c r="GJ19" s="4"/>
-      <c r="GK19" s="4"/>
-      <c r="GL19" s="4"/>
-      <c r="GM19" s="4"/>
-      <c r="GN19" s="4"/>
-      <c r="GO19" s="4"/>
-      <c r="GP19" s="4"/>
-      <c r="GQ19" s="4"/>
-      <c r="GR19" s="4"/>
-      <c r="GS19" s="4"/>
-      <c r="GT19" s="4"/>
-      <c r="GU19" s="4"/>
-      <c r="GV19" s="4"/>
-      <c r="GW19" s="4"/>
-      <c r="GX19" s="4"/>
-      <c r="GY19" s="4"/>
-      <c r="GZ19" s="4"/>
-      <c r="HA19" s="4"/>
-      <c r="HB19" s="4"/>
-      <c r="HC19" s="4"/>
-      <c r="HD19" s="4"/>
-      <c r="HE19" s="4"/>
-      <c r="HF19" s="4"/>
-      <c r="HG19" s="4"/>
-      <c r="HH19" s="4"/>
-      <c r="HI19" s="4"/>
-      <c r="HJ19" s="4"/>
-      <c r="HK19" s="4"/>
-      <c r="HL19" s="4"/>
-      <c r="HM19" s="4"/>
-      <c r="HN19" s="4"/>
-      <c r="HO19" s="4"/>
-      <c r="HP19" s="4"/>
-      <c r="HQ19" s="4"/>
-      <c r="HR19" s="4"/>
-      <c r="HS19" s="4"/>
-      <c r="HT19" s="4"/>
-      <c r="HU19" s="4"/>
-      <c r="HV19" s="4"/>
-      <c r="HW19" s="4"/>
-      <c r="HX19" s="4"/>
-      <c r="HY19" s="4"/>
-      <c r="HZ19" s="4"/>
-      <c r="IA19" s="4"/>
-      <c r="IB19" s="4"/>
-      <c r="IC19" s="4"/>
-      <c r="ID19" s="4"/>
-      <c r="IE19" s="4"/>
-      <c r="IF19" s="4"/>
-      <c r="IG19" s="4"/>
-      <c r="IH19" s="4"/>
-      <c r="II19" s="4"/>
-      <c r="IJ19" s="4"/>
-      <c r="IK19" s="4"/>
-      <c r="IL19" s="4"/>
-      <c r="IM19" s="4"/>
-      <c r="IN19" s="4"/>
-      <c r="IO19" s="4"/>
-    </row>
-    <row r="20" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
-      <c r="BP20" s="4"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="4"/>
-      <c r="BV20" s="4"/>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
-      <c r="BY20" s="4"/>
-      <c r="BZ20" s="4"/>
-      <c r="CA20" s="4"/>
-      <c r="CB20" s="4"/>
-      <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
-      <c r="CE20" s="4"/>
-      <c r="CF20" s="4"/>
-      <c r="CG20" s="4"/>
-      <c r="CH20" s="4"/>
-      <c r="CI20" s="4"/>
-      <c r="CJ20" s="4"/>
-      <c r="CK20" s="4"/>
-      <c r="CL20" s="4"/>
-      <c r="CM20" s="4"/>
-      <c r="CN20" s="4"/>
-      <c r="CO20" s="4"/>
-      <c r="CP20" s="4"/>
-      <c r="CQ20" s="4"/>
-      <c r="CR20" s="4"/>
-      <c r="CS20" s="4"/>
-      <c r="CT20" s="4"/>
-      <c r="CU20" s="4"/>
-      <c r="CV20" s="4"/>
-      <c r="CW20" s="4"/>
-      <c r="CX20" s="4"/>
-      <c r="CY20" s="4"/>
-      <c r="CZ20" s="4"/>
-      <c r="DA20" s="4"/>
-      <c r="DB20" s="4"/>
-      <c r="DC20" s="4"/>
-      <c r="DD20" s="4"/>
-      <c r="DE20" s="4"/>
-      <c r="DF20" s="4"/>
-      <c r="DG20" s="4"/>
-      <c r="DH20" s="4"/>
-      <c r="DI20" s="4"/>
-      <c r="DJ20" s="4"/>
-      <c r="DK20" s="4"/>
-      <c r="DL20" s="4"/>
-      <c r="DM20" s="4"/>
-      <c r="DN20" s="4"/>
-      <c r="DO20" s="4"/>
-      <c r="DP20" s="4"/>
-      <c r="DQ20" s="4"/>
-      <c r="DR20" s="4"/>
-      <c r="DS20" s="4"/>
-      <c r="DT20" s="4"/>
-      <c r="DU20" s="4"/>
-      <c r="DV20" s="4"/>
-      <c r="DW20" s="4"/>
-      <c r="DX20" s="4"/>
-      <c r="DY20" s="4"/>
-      <c r="DZ20" s="4"/>
-      <c r="EA20" s="4"/>
-      <c r="EB20" s="4"/>
-      <c r="EC20" s="4"/>
-      <c r="ED20" s="4"/>
-      <c r="EE20" s="4"/>
-      <c r="EF20" s="4"/>
-      <c r="EG20" s="4"/>
-      <c r="EH20" s="4"/>
-      <c r="EI20" s="4"/>
-      <c r="EJ20" s="4"/>
-      <c r="EK20" s="4"/>
-      <c r="EL20" s="4"/>
-      <c r="EM20" s="4"/>
-      <c r="EN20" s="4"/>
-      <c r="EO20" s="4"/>
-      <c r="EP20" s="4"/>
-      <c r="EQ20" s="4"/>
-      <c r="ER20" s="4"/>
-      <c r="ES20" s="4"/>
-      <c r="ET20" s="4"/>
-      <c r="EU20" s="4"/>
-      <c r="EV20" s="4"/>
-      <c r="EW20" s="4"/>
-      <c r="EX20" s="4"/>
-      <c r="EY20" s="4"/>
-      <c r="EZ20" s="4"/>
-      <c r="FA20" s="4"/>
-      <c r="FB20" s="4"/>
-      <c r="FC20" s="4"/>
-      <c r="FD20" s="4"/>
-      <c r="FE20" s="4"/>
-      <c r="FF20" s="4"/>
-      <c r="FG20" s="4"/>
-      <c r="FH20" s="4"/>
-      <c r="FI20" s="4"/>
-      <c r="FJ20" s="4"/>
-      <c r="FK20" s="4"/>
-      <c r="FL20" s="4"/>
-      <c r="FM20" s="4"/>
-      <c r="FN20" s="4"/>
-      <c r="FO20" s="4"/>
-      <c r="FP20" s="4"/>
-      <c r="FQ20" s="4"/>
-      <c r="FR20" s="4"/>
-      <c r="FS20" s="4"/>
-      <c r="FT20" s="4"/>
-      <c r="FU20" s="4"/>
-      <c r="FV20" s="4"/>
-      <c r="FW20" s="4"/>
-      <c r="FX20" s="4"/>
-      <c r="FY20" s="4"/>
-      <c r="FZ20" s="4"/>
-      <c r="GA20" s="4"/>
-      <c r="GB20" s="4"/>
-      <c r="GC20" s="4"/>
-      <c r="GD20" s="4"/>
-      <c r="GE20" s="4"/>
-      <c r="GF20" s="4"/>
-      <c r="GG20" s="4"/>
-      <c r="GH20" s="4"/>
-      <c r="GI20" s="4"/>
-      <c r="GJ20" s="4"/>
-      <c r="GK20" s="4"/>
-      <c r="GL20" s="4"/>
-      <c r="GM20" s="4"/>
-      <c r="GN20" s="4"/>
-      <c r="GO20" s="4"/>
-      <c r="GP20" s="4"/>
-      <c r="GQ20" s="4"/>
-      <c r="GR20" s="4"/>
-      <c r="GS20" s="4"/>
-      <c r="GT20" s="4"/>
-      <c r="GU20" s="4"/>
-      <c r="GV20" s="4"/>
-      <c r="GW20" s="4"/>
-      <c r="GX20" s="4"/>
-      <c r="GY20" s="4"/>
-      <c r="GZ20" s="4"/>
-      <c r="HA20" s="4"/>
-      <c r="HB20" s="4"/>
-      <c r="HC20" s="4"/>
-      <c r="HD20" s="4"/>
-      <c r="HE20" s="4"/>
-      <c r="HF20" s="4"/>
-      <c r="HG20" s="4"/>
-      <c r="HH20" s="4"/>
-      <c r="HI20" s="4"/>
-      <c r="HJ20" s="4"/>
-      <c r="HK20" s="4"/>
-      <c r="HL20" s="4"/>
-      <c r="HM20" s="4"/>
-      <c r="HN20" s="4"/>
-      <c r="HO20" s="4"/>
-      <c r="HP20" s="4"/>
-      <c r="HQ20" s="4"/>
-      <c r="HR20" s="4"/>
-      <c r="HS20" s="4"/>
-      <c r="HT20" s="4"/>
-      <c r="HU20" s="4"/>
-      <c r="HV20" s="4"/>
-      <c r="HW20" s="4"/>
-      <c r="HX20" s="4"/>
-      <c r="HY20" s="4"/>
-      <c r="HZ20" s="4"/>
-      <c r="IA20" s="4"/>
-      <c r="IB20" s="4"/>
-      <c r="IC20" s="4"/>
-      <c r="ID20" s="4"/>
-      <c r="IE20" s="4"/>
-      <c r="IF20" s="4"/>
-      <c r="IG20" s="4"/>
-      <c r="IH20" s="4"/>
-      <c r="II20" s="4"/>
-      <c r="IJ20" s="4"/>
-      <c r="IK20" s="4"/>
-      <c r="IL20" s="4"/>
-      <c r="IM20" s="4"/>
-      <c r="IN20" s="4"/>
-      <c r="IO20" s="4"/>
-    </row>
-    <row r="21" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
-      <c r="BP21" s="4"/>
-      <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="4"/>
-      <c r="BT21" s="4"/>
-      <c r="BU21" s="4"/>
-      <c r="BV21" s="4"/>
-      <c r="BW21" s="4"/>
-      <c r="BX21" s="4"/>
-      <c r="BY21" s="4"/>
-      <c r="BZ21" s="4"/>
-      <c r="CA21" s="4"/>
-      <c r="CB21" s="4"/>
-      <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
-      <c r="CE21" s="4"/>
-      <c r="CF21" s="4"/>
-      <c r="CG21" s="4"/>
-      <c r="CH21" s="4"/>
-      <c r="CI21" s="4"/>
-      <c r="CJ21" s="4"/>
-      <c r="CK21" s="4"/>
-      <c r="CL21" s="4"/>
-      <c r="CM21" s="4"/>
-      <c r="CN21" s="4"/>
-      <c r="CO21" s="4"/>
-      <c r="CP21" s="4"/>
-      <c r="CQ21" s="4"/>
-      <c r="CR21" s="4"/>
-      <c r="CS21" s="4"/>
-      <c r="CT21" s="4"/>
-      <c r="CU21" s="4"/>
-      <c r="CV21" s="4"/>
-      <c r="CW21" s="4"/>
-      <c r="CX21" s="4"/>
-      <c r="CY21" s="4"/>
-      <c r="CZ21" s="4"/>
-      <c r="DA21" s="4"/>
-      <c r="DB21" s="4"/>
-      <c r="DC21" s="4"/>
-      <c r="DD21" s="4"/>
-      <c r="DE21" s="4"/>
-      <c r="DF21" s="4"/>
-      <c r="DG21" s="4"/>
-      <c r="DH21" s="4"/>
-      <c r="DI21" s="4"/>
-      <c r="DJ21" s="4"/>
-      <c r="DK21" s="4"/>
-      <c r="DL21" s="4"/>
-      <c r="DM21" s="4"/>
-      <c r="DN21" s="4"/>
-      <c r="DO21" s="4"/>
-      <c r="DP21" s="4"/>
-      <c r="DQ21" s="4"/>
-      <c r="DR21" s="4"/>
-      <c r="DS21" s="4"/>
-      <c r="DT21" s="4"/>
-      <c r="DU21" s="4"/>
-      <c r="DV21" s="4"/>
-      <c r="DW21" s="4"/>
-      <c r="DX21" s="4"/>
-      <c r="DY21" s="4"/>
-      <c r="DZ21" s="4"/>
-      <c r="EA21" s="4"/>
-      <c r="EB21" s="4"/>
-      <c r="EC21" s="4"/>
-      <c r="ED21" s="4"/>
-      <c r="EE21" s="4"/>
-      <c r="EF21" s="4"/>
-      <c r="EG21" s="4"/>
-      <c r="EH21" s="4"/>
-      <c r="EI21" s="4"/>
-      <c r="EJ21" s="4"/>
-      <c r="EK21" s="4"/>
-      <c r="EL21" s="4"/>
-      <c r="EM21" s="4"/>
-      <c r="EN21" s="4"/>
-      <c r="EO21" s="4"/>
-      <c r="EP21" s="4"/>
-      <c r="EQ21" s="4"/>
-      <c r="ER21" s="4"/>
-      <c r="ES21" s="4"/>
-      <c r="ET21" s="4"/>
-      <c r="EU21" s="4"/>
-      <c r="EV21" s="4"/>
-      <c r="EW21" s="4"/>
-      <c r="EX21" s="4"/>
-      <c r="EY21" s="4"/>
-      <c r="EZ21" s="4"/>
-      <c r="FA21" s="4"/>
-      <c r="FB21" s="4"/>
-      <c r="FC21" s="4"/>
-      <c r="FD21" s="4"/>
-      <c r="FE21" s="4"/>
-      <c r="FF21" s="4"/>
-      <c r="FG21" s="4"/>
-      <c r="FH21" s="4"/>
-      <c r="FI21" s="4"/>
-      <c r="FJ21" s="4"/>
-      <c r="FK21" s="4"/>
-      <c r="FL21" s="4"/>
-      <c r="FM21" s="4"/>
-      <c r="FN21" s="4"/>
-      <c r="FO21" s="4"/>
-      <c r="FP21" s="4"/>
-      <c r="FQ21" s="4"/>
-      <c r="FR21" s="4"/>
-      <c r="FS21" s="4"/>
-      <c r="FT21" s="4"/>
-      <c r="FU21" s="4"/>
-      <c r="FV21" s="4"/>
-      <c r="FW21" s="4"/>
-      <c r="FX21" s="4"/>
-      <c r="FY21" s="4"/>
-      <c r="FZ21" s="4"/>
-      <c r="GA21" s="4"/>
-      <c r="GB21" s="4"/>
-      <c r="GC21" s="4"/>
-      <c r="GD21" s="4"/>
-      <c r="GE21" s="4"/>
-      <c r="GF21" s="4"/>
-      <c r="GG21" s="4"/>
-      <c r="GH21" s="4"/>
-      <c r="GI21" s="4"/>
-      <c r="GJ21" s="4"/>
-      <c r="GK21" s="4"/>
-      <c r="GL21" s="4"/>
-      <c r="GM21" s="4"/>
-      <c r="GN21" s="4"/>
-      <c r="GO21" s="4"/>
-      <c r="GP21" s="4"/>
-      <c r="GQ21" s="4"/>
-      <c r="GR21" s="4"/>
-      <c r="GS21" s="4"/>
-      <c r="GT21" s="4"/>
-      <c r="GU21" s="4"/>
-      <c r="GV21" s="4"/>
-      <c r="GW21" s="4"/>
-      <c r="GX21" s="4"/>
-      <c r="GY21" s="4"/>
-      <c r="GZ21" s="4"/>
-      <c r="HA21" s="4"/>
-      <c r="HB21" s="4"/>
-      <c r="HC21" s="4"/>
-      <c r="HD21" s="4"/>
-      <c r="HE21" s="4"/>
-      <c r="HF21" s="4"/>
-      <c r="HG21" s="4"/>
-      <c r="HH21" s="4"/>
-      <c r="HI21" s="4"/>
-      <c r="HJ21" s="4"/>
-      <c r="HK21" s="4"/>
-      <c r="HL21" s="4"/>
-      <c r="HM21" s="4"/>
-      <c r="HN21" s="4"/>
-      <c r="HO21" s="4"/>
-      <c r="HP21" s="4"/>
-      <c r="HQ21" s="4"/>
-      <c r="HR21" s="4"/>
-      <c r="HS21" s="4"/>
-      <c r="HT21" s="4"/>
-      <c r="HU21" s="4"/>
-      <c r="HV21" s="4"/>
-      <c r="HW21" s="4"/>
-      <c r="HX21" s="4"/>
-      <c r="HY21" s="4"/>
-      <c r="HZ21" s="4"/>
-      <c r="IA21" s="4"/>
-      <c r="IB21" s="4"/>
-      <c r="IC21" s="4"/>
-      <c r="ID21" s="4"/>
-      <c r="IE21" s="4"/>
-      <c r="IF21" s="4"/>
-      <c r="IG21" s="4"/>
-      <c r="IH21" s="4"/>
-      <c r="II21" s="4"/>
-      <c r="IJ21" s="4"/>
-      <c r="IK21" s="4"/>
-      <c r="IL21" s="4"/>
-      <c r="IM21" s="4"/>
-      <c r="IN21" s="4"/>
-      <c r="IO21" s="4"/>
-    </row>
-    <row r="22" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
-      <c r="BP22" s="4"/>
-      <c r="BQ22" s="4"/>
-      <c r="BR22" s="4"/>
-      <c r="BS22" s="4"/>
-      <c r="BT22" s="4"/>
-      <c r="BU22" s="4"/>
-      <c r="BV22" s="4"/>
-      <c r="BW22" s="4"/>
-      <c r="BX22" s="4"/>
-      <c r="BY22" s="4"/>
-      <c r="BZ22" s="4"/>
-      <c r="CA22" s="4"/>
-      <c r="CB22" s="4"/>
-      <c r="CC22" s="4"/>
-      <c r="CD22" s="4"/>
-      <c r="CE22" s="4"/>
-      <c r="CF22" s="4"/>
-      <c r="CG22" s="4"/>
-      <c r="CH22" s="4"/>
-      <c r="CI22" s="4"/>
-      <c r="CJ22" s="4"/>
-      <c r="CK22" s="4"/>
-      <c r="CL22" s="4"/>
-      <c r="CM22" s="4"/>
-      <c r="CN22" s="4"/>
-      <c r="CO22" s="4"/>
-      <c r="CP22" s="4"/>
-      <c r="CQ22" s="4"/>
-      <c r="CR22" s="4"/>
-      <c r="CS22" s="4"/>
-      <c r="CT22" s="4"/>
-      <c r="CU22" s="4"/>
-      <c r="CV22" s="4"/>
-      <c r="CW22" s="4"/>
-      <c r="CX22" s="4"/>
-      <c r="CY22" s="4"/>
-      <c r="CZ22" s="4"/>
-      <c r="DA22" s="4"/>
-      <c r="DB22" s="4"/>
-      <c r="DC22" s="4"/>
-      <c r="DD22" s="4"/>
-      <c r="DE22" s="4"/>
-      <c r="DF22" s="4"/>
-      <c r="DG22" s="4"/>
-      <c r="DH22" s="4"/>
-      <c r="DI22" s="4"/>
-      <c r="DJ22" s="4"/>
-      <c r="DK22" s="4"/>
-      <c r="DL22" s="4"/>
-      <c r="DM22" s="4"/>
-      <c r="DN22" s="4"/>
-      <c r="DO22" s="4"/>
-      <c r="DP22" s="4"/>
-      <c r="DQ22" s="4"/>
-      <c r="DR22" s="4"/>
-      <c r="DS22" s="4"/>
-      <c r="DT22" s="4"/>
-      <c r="DU22" s="4"/>
-      <c r="DV22" s="4"/>
-      <c r="DW22" s="4"/>
-      <c r="DX22" s="4"/>
-      <c r="DY22" s="4"/>
-      <c r="DZ22" s="4"/>
-      <c r="EA22" s="4"/>
-      <c r="EB22" s="4"/>
-      <c r="EC22" s="4"/>
-      <c r="ED22" s="4"/>
-      <c r="EE22" s="4"/>
-      <c r="EF22" s="4"/>
-      <c r="EG22" s="4"/>
-      <c r="EH22" s="4"/>
-      <c r="EI22" s="4"/>
-      <c r="EJ22" s="4"/>
-      <c r="EK22" s="4"/>
-      <c r="EL22" s="4"/>
-      <c r="EM22" s="4"/>
-      <c r="EN22" s="4"/>
-      <c r="EO22" s="4"/>
-      <c r="EP22" s="4"/>
-      <c r="EQ22" s="4"/>
-      <c r="ER22" s="4"/>
-      <c r="ES22" s="4"/>
-      <c r="ET22" s="4"/>
-      <c r="EU22" s="4"/>
-      <c r="EV22" s="4"/>
-      <c r="EW22" s="4"/>
-      <c r="EX22" s="4"/>
-      <c r="EY22" s="4"/>
-      <c r="EZ22" s="4"/>
-      <c r="FA22" s="4"/>
-      <c r="FB22" s="4"/>
-      <c r="FC22" s="4"/>
-      <c r="FD22" s="4"/>
-      <c r="FE22" s="4"/>
-      <c r="FF22" s="4"/>
-      <c r="FG22" s="4"/>
-      <c r="FH22" s="4"/>
-      <c r="FI22" s="4"/>
-      <c r="FJ22" s="4"/>
-      <c r="FK22" s="4"/>
-      <c r="FL22" s="4"/>
-      <c r="FM22" s="4"/>
-      <c r="FN22" s="4"/>
-      <c r="FO22" s="4"/>
-      <c r="FP22" s="4"/>
-      <c r="FQ22" s="4"/>
-      <c r="FR22" s="4"/>
-      <c r="FS22" s="4"/>
-      <c r="FT22" s="4"/>
-      <c r="FU22" s="4"/>
-      <c r="FV22" s="4"/>
-      <c r="FW22" s="4"/>
-      <c r="FX22" s="4"/>
-      <c r="FY22" s="4"/>
-      <c r="FZ22" s="4"/>
-      <c r="GA22" s="4"/>
-      <c r="GB22" s="4"/>
-      <c r="GC22" s="4"/>
-      <c r="GD22" s="4"/>
-      <c r="GE22" s="4"/>
-      <c r="GF22" s="4"/>
-      <c r="GG22" s="4"/>
-      <c r="GH22" s="4"/>
-      <c r="GI22" s="4"/>
-      <c r="GJ22" s="4"/>
-      <c r="GK22" s="4"/>
-      <c r="GL22" s="4"/>
-      <c r="GM22" s="4"/>
-      <c r="GN22" s="4"/>
-      <c r="GO22" s="4"/>
-      <c r="GP22" s="4"/>
-      <c r="GQ22" s="4"/>
-      <c r="GR22" s="4"/>
-      <c r="GS22" s="4"/>
-      <c r="GT22" s="4"/>
-      <c r="GU22" s="4"/>
-      <c r="GV22" s="4"/>
-      <c r="GW22" s="4"/>
-      <c r="GX22" s="4"/>
-      <c r="GY22" s="4"/>
-      <c r="GZ22" s="4"/>
-      <c r="HA22" s="4"/>
-      <c r="HB22" s="4"/>
-      <c r="HC22" s="4"/>
-      <c r="HD22" s="4"/>
-      <c r="HE22" s="4"/>
-      <c r="HF22" s="4"/>
-      <c r="HG22" s="4"/>
-      <c r="HH22" s="4"/>
-      <c r="HI22" s="4"/>
-      <c r="HJ22" s="4"/>
-      <c r="HK22" s="4"/>
-      <c r="HL22" s="4"/>
-      <c r="HM22" s="4"/>
-      <c r="HN22" s="4"/>
-      <c r="HO22" s="4"/>
-      <c r="HP22" s="4"/>
-      <c r="HQ22" s="4"/>
-      <c r="HR22" s="4"/>
-      <c r="HS22" s="4"/>
-      <c r="HT22" s="4"/>
-      <c r="HU22" s="4"/>
-      <c r="HV22" s="4"/>
-      <c r="HW22" s="4"/>
-      <c r="HX22" s="4"/>
-      <c r="HY22" s="4"/>
-      <c r="HZ22" s="4"/>
-      <c r="IA22" s="4"/>
-      <c r="IB22" s="4"/>
-      <c r="IC22" s="4"/>
-      <c r="ID22" s="4"/>
-      <c r="IE22" s="4"/>
-      <c r="IF22" s="4"/>
-      <c r="IG22" s="4"/>
-      <c r="IH22" s="4"/>
-      <c r="II22" s="4"/>
-      <c r="IJ22" s="4"/>
-      <c r="IK22" s="4"/>
-      <c r="IL22" s="4"/>
-      <c r="IM22" s="4"/>
-      <c r="IN22" s="4"/>
-      <c r="IO22" s="4"/>
-    </row>
-    <row r="23" spans="1:249" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
-      <c r="BP23" s="4"/>
-      <c r="BQ23" s="4"/>
-      <c r="BR23" s="4"/>
-      <c r="BS23" s="4"/>
-      <c r="BT23" s="4"/>
-      <c r="BU23" s="4"/>
-      <c r="BV23" s="4"/>
-      <c r="BW23" s="4"/>
-      <c r="BX23" s="4"/>
-      <c r="BY23" s="4"/>
-      <c r="BZ23" s="4"/>
-      <c r="CA23" s="4"/>
-      <c r="CB23" s="4"/>
-      <c r="CC23" s="4"/>
-      <c r="CD23" s="4"/>
-      <c r="CE23" s="4"/>
-      <c r="CF23" s="4"/>
-      <c r="CG23" s="4"/>
-      <c r="CH23" s="4"/>
-      <c r="CI23" s="4"/>
-      <c r="CJ23" s="4"/>
-      <c r="CK23" s="4"/>
-      <c r="CL23" s="4"/>
-      <c r="CM23" s="4"/>
-      <c r="CN23" s="4"/>
-      <c r="CO23" s="4"/>
-      <c r="CP23" s="4"/>
-      <c r="CQ23" s="4"/>
-      <c r="CR23" s="4"/>
-      <c r="CS23" s="4"/>
-      <c r="CT23" s="4"/>
-      <c r="CU23" s="4"/>
-      <c r="CV23" s="4"/>
-      <c r="CW23" s="4"/>
-      <c r="CX23" s="4"/>
-      <c r="CY23" s="4"/>
-      <c r="CZ23" s="4"/>
-      <c r="DA23" s="4"/>
-      <c r="DB23" s="4"/>
-      <c r="DC23" s="4"/>
-      <c r="DD23" s="4"/>
-      <c r="DE23" s="4"/>
-      <c r="DF23" s="4"/>
-      <c r="DG23" s="4"/>
-      <c r="DH23" s="4"/>
-      <c r="DI23" s="4"/>
-      <c r="DJ23" s="4"/>
-      <c r="DK23" s="4"/>
-      <c r="DL23" s="4"/>
-      <c r="DM23" s="4"/>
-      <c r="DN23" s="4"/>
-      <c r="DO23" s="4"/>
-      <c r="DP23" s="4"/>
-      <c r="DQ23" s="4"/>
-      <c r="DR23" s="4"/>
-      <c r="DS23" s="4"/>
-      <c r="DT23" s="4"/>
-      <c r="DU23" s="4"/>
-      <c r="DV23" s="4"/>
-      <c r="DW23" s="4"/>
-      <c r="DX23" s="4"/>
-      <c r="DY23" s="4"/>
-      <c r="DZ23" s="4"/>
-      <c r="EA23" s="4"/>
-      <c r="EB23" s="4"/>
-      <c r="EC23" s="4"/>
-      <c r="ED23" s="4"/>
-      <c r="EE23" s="4"/>
-      <c r="EF23" s="4"/>
-      <c r="EG23" s="4"/>
-      <c r="EH23" s="4"/>
-      <c r="EI23" s="4"/>
-      <c r="EJ23" s="4"/>
-      <c r="EK23" s="4"/>
-      <c r="EL23" s="4"/>
-      <c r="EM23" s="4"/>
-      <c r="EN23" s="4"/>
-      <c r="EO23" s="4"/>
-      <c r="EP23" s="4"/>
-      <c r="EQ23" s="4"/>
-      <c r="ER23" s="4"/>
-      <c r="ES23" s="4"/>
-      <c r="ET23" s="4"/>
-      <c r="EU23" s="4"/>
-      <c r="EV23" s="4"/>
-      <c r="EW23" s="4"/>
-      <c r="EX23" s="4"/>
-      <c r="EY23" s="4"/>
-      <c r="EZ23" s="4"/>
-      <c r="FA23" s="4"/>
-      <c r="FB23" s="4"/>
-      <c r="FC23" s="4"/>
-      <c r="FD23" s="4"/>
-      <c r="FE23" s="4"/>
-      <c r="FF23" s="4"/>
-      <c r="FG23" s="4"/>
-      <c r="FH23" s="4"/>
-      <c r="FI23" s="4"/>
-      <c r="FJ23" s="4"/>
-      <c r="FK23" s="4"/>
-      <c r="FL23" s="4"/>
-      <c r="FM23" s="4"/>
-      <c r="FN23" s="4"/>
-      <c r="FO23" s="4"/>
-      <c r="FP23" s="4"/>
-      <c r="FQ23" s="4"/>
-      <c r="FR23" s="4"/>
-      <c r="FS23" s="4"/>
-      <c r="FT23" s="4"/>
-      <c r="FU23" s="4"/>
-      <c r="FV23" s="4"/>
-      <c r="FW23" s="4"/>
-      <c r="FX23" s="4"/>
-      <c r="FY23" s="4"/>
-      <c r="FZ23" s="4"/>
-      <c r="GA23" s="4"/>
-      <c r="GB23" s="4"/>
-      <c r="GC23" s="4"/>
-      <c r="GD23" s="4"/>
-      <c r="GE23" s="4"/>
-      <c r="GF23" s="4"/>
-      <c r="GG23" s="4"/>
-      <c r="GH23" s="4"/>
-      <c r="GI23" s="4"/>
-      <c r="GJ23" s="4"/>
-      <c r="GK23" s="4"/>
-      <c r="GL23" s="4"/>
-      <c r="GM23" s="4"/>
-      <c r="GN23" s="4"/>
-      <c r="GO23" s="4"/>
-      <c r="GP23" s="4"/>
-      <c r="GQ23" s="4"/>
-      <c r="GR23" s="4"/>
-      <c r="GS23" s="4"/>
-      <c r="GT23" s="4"/>
-      <c r="GU23" s="4"/>
-      <c r="GV23" s="4"/>
-      <c r="GW23" s="4"/>
-      <c r="GX23" s="4"/>
-      <c r="GY23" s="4"/>
-      <c r="GZ23" s="4"/>
-      <c r="HA23" s="4"/>
-      <c r="HB23" s="4"/>
-      <c r="HC23" s="4"/>
-      <c r="HD23" s="4"/>
-      <c r="HE23" s="4"/>
-      <c r="HF23" s="4"/>
-      <c r="HG23" s="4"/>
-      <c r="HH23" s="4"/>
-      <c r="HI23" s="4"/>
-      <c r="HJ23" s="4"/>
-      <c r="HK23" s="4"/>
-      <c r="HL23" s="4"/>
-      <c r="HM23" s="4"/>
-      <c r="HN23" s="4"/>
-      <c r="HO23" s="4"/>
-      <c r="HP23" s="4"/>
-      <c r="HQ23" s="4"/>
-      <c r="HR23" s="4"/>
-      <c r="HS23" s="4"/>
-      <c r="HT23" s="4"/>
-      <c r="HU23" s="4"/>
-      <c r="HV23" s="4"/>
-      <c r="HW23" s="4"/>
-      <c r="HX23" s="4"/>
-      <c r="HY23" s="4"/>
-      <c r="HZ23" s="4"/>
-      <c r="IA23" s="4"/>
-      <c r="IB23" s="4"/>
-      <c r="IC23" s="4"/>
-      <c r="ID23" s="4"/>
-      <c r="IE23" s="4"/>
-      <c r="IF23" s="4"/>
-      <c r="IG23" s="4"/>
-      <c r="IH23" s="4"/>
-      <c r="II23" s="4"/>
-      <c r="IJ23" s="4"/>
-      <c r="IK23" s="4"/>
-      <c r="IL23" s="4"/>
-      <c r="IM23" s="4"/>
-      <c r="IN23" s="4"/>
-      <c r="IO23" s="4"/>
+      <c r="IX16" s="5"/>
+    </row>
+    <row r="17" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ17" s="5"/>
+      <c r="IR17" s="5"/>
+      <c r="IS17" s="5"/>
+      <c r="IT17" s="5"/>
+      <c r="IU17" s="5"/>
+      <c r="IV17" s="5"/>
+      <c r="IW17" s="5"/>
+      <c r="IX17" s="5"/>
+    </row>
+    <row r="18" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ18" s="5"/>
+      <c r="IR18" s="5"/>
+      <c r="IS18" s="5"/>
+      <c r="IT18" s="5"/>
+      <c r="IU18" s="5"/>
+      <c r="IV18" s="5"/>
+      <c r="IW18" s="5"/>
+      <c r="IX18" s="5"/>
+    </row>
+    <row r="19" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ19" s="5"/>
+      <c r="IR19" s="5"/>
+      <c r="IS19" s="5"/>
+      <c r="IT19" s="5"/>
+      <c r="IU19" s="5"/>
+      <c r="IV19" s="5"/>
+      <c r="IW19" s="5"/>
+      <c r="IX19" s="5"/>
+    </row>
+    <row r="20" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ20" s="5"/>
+      <c r="IR20" s="5"/>
+      <c r="IS20" s="5"/>
+      <c r="IT20" s="5"/>
+      <c r="IU20" s="5"/>
+      <c r="IV20" s="5"/>
+      <c r="IW20" s="5"/>
+      <c r="IX20" s="5"/>
+    </row>
+    <row r="21" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ21" s="5"/>
+      <c r="IR21" s="5"/>
+      <c r="IS21" s="5"/>
+      <c r="IT21" s="5"/>
+      <c r="IU21" s="5"/>
+      <c r="IV21" s="5"/>
+      <c r="IW21" s="5"/>
+      <c r="IX21" s="5"/>
+    </row>
+    <row r="22" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ22" s="5"/>
+      <c r="IR22" s="5"/>
+      <c r="IS22" s="5"/>
+      <c r="IT22" s="5"/>
+      <c r="IU22" s="5"/>
+      <c r="IV22" s="5"/>
+      <c r="IW22" s="5"/>
+      <c r="IX22" s="5"/>
+    </row>
+    <row r="23" spans="251:258" ht="20.25" customHeight="1">
+      <c r="IQ23" s="5"/>
+      <c r="IR23" s="5"/>
+      <c r="IS23" s="5"/>
+      <c r="IT23" s="5"/>
+      <c r="IU23" s="5"/>
+      <c r="IV23" s="5"/>
+      <c r="IW23" s="5"/>
+      <c r="IX23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4911,25 +3258,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="35.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" style="26" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="26" customWidth="1"/>
-    <col min="3" max="6" width="16.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="26" customWidth="1"/>
+    <col min="3" max="6" width="16.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="26" customWidth="1"/>
     <col min="8" max="8" width="115" style="26" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="26" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="26"/>
+    <col min="9" max="9" width="23.85546875" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="35.25" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>123</v>
       </c>
@@ -4982,7 +3329,7 @@
       </c>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="35.25" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>31</v>
       </c>
@@ -5008,7 +3355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="35.25" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
@@ -5032,7 +3379,7 @@
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="35.25" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -5058,7 +3405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="35.25" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
@@ -5082,7 +3429,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="35.25" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
@@ -5108,7 +3455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="35.25" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
@@ -5134,7 +3481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="35.25" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -5160,7 +3507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="35.25" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -5186,7 +3533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="35.25" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -5212,7 +3559,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="35.25" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
@@ -5238,7 +3585,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="35.25" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
@@ -5264,7 +3611,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="35.25" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
@@ -5290,7 +3637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="35.25" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>34</v>
       </c>
@@ -5316,7 +3663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="35.25" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>35</v>
       </c>
@@ -5342,7 +3689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="35.25" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>36</v>
       </c>
@@ -5368,7 +3715,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="35.25" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
@@ -5394,7 +3741,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="35.25" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
@@ -5420,7 +3767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="35.25" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
@@ -5446,7 +3793,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="35.25" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
@@ -5472,7 +3819,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="35.25" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>41</v>
       </c>
@@ -5498,7 +3845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="35.25" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>42</v>
       </c>
@@ -5524,7 +3871,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="35.25" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>43</v>
       </c>
@@ -5550,7 +3897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="35.25" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>44</v>
       </c>
@@ -5576,7 +3923,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="35.25" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>45</v>
       </c>
@@ -5602,7 +3949,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="35.25" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>46</v>
       </c>
@@ -5628,7 +3975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="35.25" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>47</v>
       </c>
@@ -5654,7 +4001,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="35.25" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>48</v>
       </c>
@@ -5680,7 +4027,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="35.25" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>49</v>
       </c>
@@ -5706,7 +4053,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="35.25" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>50</v>
       </c>
@@ -5732,7 +4079,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="35.25" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>51</v>
       </c>
@@ -5758,7 +4105,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="35.25" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>52</v>
       </c>
@@ -5770,7 +4117,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="35.25" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>53</v>
       </c>
@@ -5782,7 +4129,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="35.25" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
@@ -5794,7 +4141,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="35.25" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>55</v>
       </c>
@@ -5806,7 +4153,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="35.25" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>56</v>
       </c>
@@ -5818,7 +4165,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="35.25" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>57</v>
       </c>
@@ -5830,7 +4177,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="35.25" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>58</v>
       </c>
@@ -5842,7 +4189,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="35.25" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +4201,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="35.25" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>60</v>
       </c>
@@ -5866,7 +4213,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="35.25" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>61</v>
       </c>
@@ -5878,7 +4225,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="35.25" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>62</v>
       </c>
@@ -5890,7 +4237,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="35.25" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>63</v>
       </c>
@@ -5902,7 +4249,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="35.25" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>64</v>
       </c>
@@ -5914,7 +4261,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="35.25" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>65</v>
       </c>
@@ -5926,7 +4273,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="35.25" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>66</v>
       </c>
@@ -5938,7 +4285,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="35.25" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>67</v>
       </c>
@@ -5950,7 +4297,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="35.25" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>68</v>
       </c>
@@ -5962,7 +4309,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="35.25" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>69</v>
       </c>
@@ -5974,7 +4321,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="35.25" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>70</v>
       </c>
@@ -5986,7 +4333,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="35.25" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>71</v>
       </c>
@@ -5998,7 +4345,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="35.25" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>72</v>
       </c>
@@ -6010,7 +4357,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="35.25" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>73</v>
       </c>
@@ -6022,7 +4369,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="35.25" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>74</v>
       </c>
@@ -6034,7 +4381,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="35.25" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>75</v>
       </c>
@@ -6046,7 +4393,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="35.25" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>76</v>
       </c>
@@ -6058,7 +4405,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="35.25" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>77</v>
       </c>
@@ -6070,7 +4417,7 @@
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="35.25" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>78</v>
       </c>
@@ -6082,7 +4429,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="35.25" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>79</v>
       </c>
@@ -6094,7 +4441,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="35.25" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>80</v>
       </c>
@@ -6106,7 +4453,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="35.25" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>81</v>
       </c>
@@ -6118,7 +4465,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="35.25" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>82</v>
       </c>
@@ -6130,7 +4477,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="35.25" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>83</v>
       </c>
@@ -6142,7 +4489,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="35.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>84</v>
       </c>
@@ -6154,7 +4501,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="35.25" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>85</v>
       </c>
@@ -6166,7 +4513,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="35.25" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>86</v>
       </c>
@@ -6178,7 +4525,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="35.25" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>87</v>
       </c>
@@ -6190,7 +4537,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="35.25" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>88</v>
       </c>
@@ -6202,7 +4549,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="35.25" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>89</v>
       </c>
@@ -6214,7 +4561,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="35.25" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>90</v>
       </c>
@@ -6226,7 +4573,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="35.25" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>91</v>
       </c>
@@ -6238,7 +4585,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="35.25" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>92</v>
       </c>
@@ -6250,7 +4597,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="35.25" customHeight="1">
       <c r="A74" s="17" t="s">
         <v>93</v>
       </c>
@@ -6262,7 +4609,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="35.25" customHeight="1">
       <c r="A75" s="17" t="s">
         <v>94</v>
       </c>
@@ -6274,7 +4621,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="35.25" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>95</v>
       </c>
@@ -6286,7 +4633,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="35.25" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>96</v>
       </c>
@@ -6298,7 +4645,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="35.25" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>97</v>
       </c>
@@ -6310,7 +4657,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="35.25" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>98</v>
       </c>
@@ -6322,7 +4669,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="35.25" customHeight="1">
       <c r="A80" s="17" t="s">
         <v>99</v>
       </c>
@@ -6334,7 +4681,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="35.25" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>100</v>
       </c>
@@ -6346,7 +4693,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
     </row>
-    <row r="82" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="35.25" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>101</v>
       </c>
@@ -6358,7 +4705,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="35.25" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>102</v>
       </c>
@@ -6370,7 +4717,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="35.25" customHeight="1">
       <c r="A84" s="17" t="s">
         <v>103</v>
       </c>
@@ -6382,7 +4729,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="35.25" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>104</v>
       </c>
@@ -6394,7 +4741,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="35.25" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>105</v>
       </c>
@@ -6406,7 +4753,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="35.25" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>106</v>
       </c>
@@ -6418,7 +4765,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="35.25" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>107</v>
       </c>
@@ -6430,7 +4777,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="35.25" customHeight="1">
       <c r="A89" s="17" t="s">
         <v>108</v>
       </c>
@@ -6442,7 +4789,7 @@
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
     </row>
-    <row r="90" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="35.25" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>109</v>
       </c>
@@ -6454,7 +4801,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="35.25" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>110</v>
       </c>
@@ -6466,7 +4813,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="35.25" customHeight="1">
       <c r="A92" s="17" t="s">
         <v>111</v>
       </c>
@@ -6478,7 +4825,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="35.25" customHeight="1">
       <c r="A93" s="17" t="s">
         <v>112</v>
       </c>
@@ -6490,7 +4837,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="35.25" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>113</v>
       </c>
@@ -6502,7 +4849,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="35.25" customHeight="1">
       <c r="A95" s="17" t="s">
         <v>114</v>
       </c>
@@ -6514,7 +4861,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="35.25" customHeight="1">
       <c r="A96" s="17" t="s">
         <v>115</v>
       </c>
@@ -6526,7 +4873,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="35.25" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>116</v>
       </c>
@@ -6538,7 +4885,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="35.25" customHeight="1">
       <c r="A98" s="17" t="s">
         <v>117</v>
       </c>
@@ -6550,7 +4897,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="35.25" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>118</v>
       </c>
@@ -6562,7 +4909,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="35.25" customHeight="1">
       <c r="A100" s="17" t="s">
         <v>119</v>
       </c>
@@ -6574,7 +4921,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="35.25" customHeight="1">
       <c r="A101" s="17" t="s">
         <v>120</v>
       </c>
@@ -6586,7 +4933,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
     </row>
-    <row r="102" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="35.25" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>121</v>
       </c>

--- a/xlsx/builtin/冷知识01(test).xlsx
+++ b/xlsx/builtin/冷知识01(test).xlsx
@@ -1344,7 +1344,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简体中文</t>
+    <t>zh-CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2960,7 +2960,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
